--- a/REGULAR/OJT/OLEGARIO, LEONARD ERIC.xlsx
+++ b/REGULAR/OJT/OLEGARIO, LEONARD ERIC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6229BE3-D486-4F10-B972-AE514F64DFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -314,12 +313,21 @@
   </si>
   <si>
     <t>12/27,29/2022</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/31, 6/2/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -692,6 +700,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,9 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,7 +1187,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1230,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1294,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1354,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1420,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1483,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1581,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1640,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1705,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1748,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1823,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2009,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2075,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2133,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2199,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2255,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2330,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2373,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2439,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2495,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2593,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2656,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,25 +2722,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K228" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K228" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2744,13 +2752,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2759,14 +2767,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3070,7 +3078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3080,7 +3088,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3088,97 +3096,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A139" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A139" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
+      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3186,7 +3194,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3199,24 +3207,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3251,7 +3259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3260,7 +3268,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>77.781999999999996</v>
+        <v>78.281999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3270,12 +3278,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>110.75</v>
+        <v>113.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
@@ -3297,7 +3305,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>41946</v>
       </c>
@@ -3315,7 +3323,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>41976</v>
@@ -3336,7 +3344,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>43</v>
       </c>
@@ -3354,7 +3362,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>42005</v>
       </c>
@@ -3374,7 +3382,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A14,1)</f>
         <v>42036</v>
@@ -3395,7 +3403,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" ref="A16:A28" si="0">EDATE(A15,1)</f>
         <v>42064</v>
@@ -3416,7 +3424,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>42095</v>
@@ -3437,7 +3445,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>42125</v>
@@ -3462,7 +3470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -3480,7 +3488,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>42156</v>
@@ -3501,7 +3509,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>42186</v>
@@ -3524,7 +3532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
@@ -3542,7 +3550,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f>EDATE(A21,1)</f>
         <v>42217</v>
@@ -3563,7 +3571,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>42248</v>
@@ -3586,7 +3594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>57</v>
@@ -3608,7 +3616,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
@@ -3626,7 +3634,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f>EDATE(A24,1)</f>
         <v>42278</v>
@@ -3647,7 +3655,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>42309</v>
@@ -3668,7 +3676,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>42339</v>
@@ -3693,7 +3701,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>51</v>
       </c>
@@ -3711,7 +3719,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>42370</v>
       </c>
@@ -3735,7 +3743,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f>EDATE(A31,1)</f>
         <v>42401</v>
@@ -3758,7 +3766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>54</v>
@@ -3780,7 +3788,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f>EDATE(A32,1)</f>
         <v>42430</v>
@@ -3805,7 +3813,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" ref="A35:A47" si="1">EDATE(A34,1)</f>
         <v>42461</v>
@@ -3830,7 +3838,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>42491</v>
@@ -3855,7 +3863,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>46</v>
@@ -3875,7 +3883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>57</v>
@@ -3897,7 +3905,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>59</v>
@@ -3919,7 +3927,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A36,1)</f>
         <v>42522</v>
@@ -3940,7 +3948,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>42552</v>
@@ -3963,7 +3971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -3981,7 +3989,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A41,1)</f>
         <v>42583</v>
@@ -4002,7 +4010,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="1"/>
         <v>42614</v>
@@ -4027,7 +4035,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>61</v>
@@ -4049,7 +4057,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>42644</v>
@@ -4074,7 +4082,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="1"/>
         <v>42675</v>
@@ -4095,7 +4103,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A47,1)</f>
         <v>42705</v>
@@ -4118,7 +4126,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>64</v>
@@ -4140,7 +4148,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>65</v>
       </c>
@@ -4158,7 +4166,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>42736</v>
       </c>
@@ -4178,7 +4186,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>42767</v>
@@ -4203,7 +4211,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4221,7 +4229,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>42795</v>
@@ -4242,7 +4250,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" ref="A55:A65" si="2">EDATE(A54,1)</f>
         <v>42826</v>
@@ -4267,7 +4275,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>66</v>
@@ -4289,7 +4297,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>42856</v>
@@ -4310,7 +4318,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>42887</v>
@@ -4335,7 +4343,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="2"/>
         <v>42917</v>
@@ -4358,7 +4366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4376,7 +4384,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>42948</v>
@@ -4401,7 +4409,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="2"/>
         <v>42979</v>
@@ -4422,7 +4430,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="2"/>
         <v>43009</v>
@@ -4443,7 +4451,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>43040</v>
@@ -4464,7 +4472,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="2"/>
         <v>43070</v>
@@ -4489,7 +4497,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
         <v>68</v>
       </c>
@@ -4507,7 +4515,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>43101</v>
       </c>
@@ -4527,7 +4535,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A67,1)</f>
         <v>43132</v>
@@ -4552,7 +4560,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4570,7 +4578,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>43160</v>
@@ -4591,7 +4599,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" ref="A71:A79" si="3">EDATE(A70,1)</f>
         <v>43191</v>
@@ -4612,7 +4620,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="3"/>
         <v>43221</v>
@@ -4637,7 +4645,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="3"/>
         <v>43252</v>
@@ -4658,7 +4666,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="3"/>
         <v>43282</v>
@@ -4681,7 +4689,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13">
@@ -4699,7 +4707,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A74,1)</f>
         <v>43313</v>
@@ -4720,7 +4728,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="3"/>
         <v>43344</v>
@@ -4741,7 +4749,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="3"/>
         <v>43374</v>
@@ -4762,7 +4770,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="3"/>
         <v>43405</v>
@@ -4787,7 +4795,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>69</v>
@@ -4809,7 +4817,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>43435</v>
@@ -4834,7 +4842,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>59</v>
@@ -4856,7 +4864,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
         <v>72</v>
       </c>
@@ -4874,7 +4882,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>43466</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>46</v>
@@ -4918,7 +4926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4936,7 +4944,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A84,1)</f>
         <v>43497</v>
@@ -4959,7 +4967,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>66</v>
@@ -4981,7 +4989,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>43525</v>
@@ -5006,7 +5014,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>75</v>
@@ -5028,7 +5036,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5046,7 +5054,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A89,1)</f>
         <v>43556</v>
@@ -5071,7 +5079,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" ref="A93:A101" si="4">EDATE(A92,1)</f>
         <v>43586</v>
@@ -5092,7 +5100,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="4"/>
         <v>43617</v>
@@ -5117,7 +5125,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5135,7 +5143,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>43647</v>
@@ -5156,7 +5164,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="4"/>
         <v>43678</v>
@@ -5177,7 +5185,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="4"/>
         <v>43709</v>
@@ -5202,7 +5210,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="4"/>
         <v>43739</v>
@@ -5227,7 +5235,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="4"/>
         <v>43770</v>
@@ -5248,7 +5256,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="4"/>
         <v>43800</v>
@@ -5271,7 +5279,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>79</v>
@@ -5293,7 +5301,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
         <v>78</v>
       </c>
@@ -5311,7 +5319,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>43831</v>
       </c>
@@ -5333,7 +5341,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>60</v>
@@ -5355,7 +5363,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -5373,7 +5381,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A104,1)</f>
         <v>43862</v>
@@ -5394,7 +5402,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A118" si="5">EDATE(A107,1)</f>
         <v>43891</v>
@@ -5415,7 +5423,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="5"/>
         <v>43922</v>
@@ -5436,7 +5444,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="5"/>
         <v>43952</v>
@@ -5457,7 +5465,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="5"/>
         <v>43983</v>
@@ -5478,7 +5486,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="5"/>
         <v>44013</v>
@@ -5503,7 +5511,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5521,7 +5529,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>44044</v>
@@ -5542,7 +5550,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="5"/>
         <v>44075</v>
@@ -5563,7 +5571,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -5584,7 +5592,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -5605,7 +5613,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -5630,7 +5638,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>81</v>
       </c>
@@ -5648,7 +5656,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>44197</v>
       </c>
@@ -5670,7 +5678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -5688,7 +5696,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>44228</v>
@@ -5709,7 +5717,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" ref="A123:A133" si="6">EDATE(A122,1)</f>
         <v>44256</v>
@@ -5730,7 +5738,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="6"/>
         <v>44287</v>
@@ -5751,7 +5759,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="6"/>
         <v>44317</v>
@@ -5772,7 +5780,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="6"/>
         <v>44348</v>
@@ -5797,7 +5805,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13">
@@ -5815,7 +5823,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>44378</v>
@@ -5836,7 +5844,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="6"/>
         <v>44409</v>
@@ -5857,7 +5865,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="6"/>
         <v>44440</v>
@@ -5878,7 +5886,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="6"/>
         <v>44470</v>
@@ -5899,7 +5907,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="6"/>
         <v>44501</v>
@@ -5920,7 +5928,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="6"/>
         <v>44531</v>
@@ -5943,7 +5951,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="47" t="s">
         <v>82</v>
       </c>
@@ -5961,7 +5969,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>44562</v>
       </c>
@@ -5981,7 +5989,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A135,1)</f>
         <v>44593</v>
@@ -6002,7 +6010,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A142" si="7">EDATE(A136,1)</f>
         <v>44621</v>
@@ -6023,7 +6031,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="7"/>
         <v>44652</v>
@@ -6044,7 +6052,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>44682</v>
@@ -6069,7 +6077,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -6087,7 +6095,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>44713</v>
@@ -6108,7 +6116,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="7"/>
         <v>44743</v>
@@ -6135,7 +6143,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>44774</v>
       </c>
@@ -6155,7 +6163,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>44805</v>
       </c>
@@ -6175,11 +6183,11 @@
       <c r="H144" s="39"/>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="61">
+      <c r="K144" s="49">
         <v>45184</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>87</v>
@@ -6195,11 +6203,11 @@
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="61">
+      <c r="K145" s="49">
         <v>44819</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>44835</v>
       </c>
@@ -6219,7 +6227,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>44866</v>
       </c>
@@ -6241,11 +6249,11 @@
       <c r="H147" s="39"/>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="61">
+      <c r="K147" s="49">
         <v>44894</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>44896</v>
       </c>
@@ -6271,7 +6279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="47" t="s">
         <v>85</v>
       </c>
@@ -6289,7 +6297,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>44927</v>
       </c>
@@ -6309,7 +6317,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>44958</v>
       </c>
@@ -6329,49 +6337,57 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>44986</v>
       </c>
       <c r="B152" s="20"/>
-      <c r="C152" s="13"/>
+      <c r="C152" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D152" s="39"/>
       <c r="E152" s="9"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G152" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H152" s="39"/>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>45017</v>
       </c>
       <c r="B153" s="20"/>
-      <c r="C153" s="13"/>
+      <c r="C153" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D153" s="39"/>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
-      <c r="G153" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G153" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>45047</v>
       </c>
-      <c r="B154" s="20"/>
+      <c r="B154" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C154" s="13"/>
-      <c r="D154" s="39"/>
+      <c r="D154" s="39">
+        <v>2</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
       <c r="G154" s="13" t="str">
@@ -6381,13 +6397,17 @@
       <c r="H154" s="39"/>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="20"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K154" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>45078</v>
       </c>
-      <c r="B155" s="20"/>
+      <c r="B155" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
       <c r="E155" s="9"/>
@@ -6401,7 +6421,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>45108</v>
       </c>
@@ -6419,7 +6439,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>45139</v>
       </c>
@@ -6437,7 +6457,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>45170</v>
       </c>
@@ -6455,7 +6475,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>45200</v>
       </c>
@@ -6473,7 +6493,7 @@
       <c r="J159" s="12"/>
       <c r="K159" s="15"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>45231</v>
       </c>
@@ -6491,7 +6511,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>45261</v>
       </c>
@@ -6509,7 +6529,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>45292</v>
       </c>
@@ -6527,7 +6547,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>45323</v>
       </c>
@@ -6545,7 +6565,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>45352</v>
       </c>
@@ -6563,7 +6583,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>45383</v>
       </c>
@@ -6581,7 +6601,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>45413</v>
       </c>
@@ -6599,7 +6619,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>45444</v>
       </c>
@@ -6617,7 +6637,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>45474</v>
       </c>
@@ -6635,7 +6655,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>45505</v>
       </c>
@@ -6653,7 +6673,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>45536</v>
       </c>
@@ -6671,7 +6691,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>45566</v>
       </c>
@@ -6689,7 +6709,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>45597</v>
       </c>
@@ -6707,7 +6727,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>45627</v>
       </c>
@@ -6725,7 +6745,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>45658</v>
       </c>
@@ -6743,7 +6763,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>45689</v>
       </c>
@@ -6761,7 +6781,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>45717</v>
       </c>
@@ -6779,7 +6799,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>45748</v>
       </c>
@@ -6797,7 +6817,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>45778</v>
       </c>
@@ -6815,7 +6835,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>45809</v>
       </c>
@@ -6833,7 +6853,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>45839</v>
       </c>
@@ -6851,7 +6871,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>45870</v>
       </c>
@@ -6869,7 +6889,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>45901</v>
       </c>
@@ -6887,7 +6907,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>45931</v>
       </c>
@@ -6905,7 +6925,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>45962</v>
       </c>
@@ -6923,7 +6943,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>45992</v>
       </c>
@@ -6941,7 +6961,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>46023</v>
       </c>
@@ -6959,7 +6979,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>46054</v>
       </c>
@@ -6977,7 +6997,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>46082</v>
       </c>
@@ -6995,7 +7015,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>46113</v>
       </c>
@@ -7013,7 +7033,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>46143</v>
       </c>
@@ -7031,7 +7051,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>46174</v>
       </c>
@@ -7049,7 +7069,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>46204</v>
       </c>
@@ -7067,7 +7087,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>46235</v>
       </c>
@@ -7085,7 +7105,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>46266</v>
       </c>
@@ -7103,7 +7123,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>46296</v>
       </c>
@@ -7121,7 +7141,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>46327</v>
       </c>
@@ -7139,7 +7159,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>46357</v>
       </c>
@@ -7157,7 +7177,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>46388</v>
       </c>
@@ -7175,7 +7195,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>46419</v>
       </c>
@@ -7193,7 +7213,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>46447</v>
       </c>
@@ -7211,7 +7231,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>46478</v>
       </c>
@@ -7229,7 +7249,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>46508</v>
       </c>
@@ -7247,7 +7267,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>46539</v>
       </c>
@@ -7265,7 +7285,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>46569</v>
       </c>
@@ -7283,7 +7303,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>46600</v>
       </c>
@@ -7301,7 +7321,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>46631</v>
       </c>
@@ -7319,7 +7339,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>46661</v>
       </c>
@@ -7337,7 +7357,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>46692</v>
       </c>
@@ -7355,7 +7375,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>46722</v>
       </c>
@@ -7373,7 +7393,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>46753</v>
       </c>
@@ -7391,7 +7411,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>46784</v>
       </c>
@@ -7409,7 +7429,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>46813</v>
       </c>
@@ -7427,7 +7447,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>46844</v>
       </c>
@@ -7445,7 +7465,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>46874</v>
       </c>
@@ -7463,7 +7483,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>46905</v>
       </c>
@@ -7481,7 +7501,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>46935</v>
       </c>
@@ -7499,7 +7519,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>46966</v>
       </c>
@@ -7517,7 +7537,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>46997</v>
       </c>
@@ -7535,7 +7555,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>47027</v>
       </c>
@@ -7553,7 +7573,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>47058</v>
       </c>
@@ -7571,7 +7591,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>47088</v>
       </c>
@@ -7589,7 +7609,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>47119</v>
       </c>
@@ -7607,7 +7627,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>47150</v>
       </c>
@@ -7625,7 +7645,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>47178</v>
       </c>
@@ -7643,7 +7663,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>47209</v>
       </c>
@@ -7661,7 +7681,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>47239</v>
       </c>
@@ -7679,7 +7699,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>47270</v>
       </c>
@@ -7697,7 +7717,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>47300</v>
       </c>
@@ -7730,10 +7750,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7756,7 +7776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7764,34 +7784,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7820,7 +7840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -7846,17 +7866,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7870,14 +7890,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7904,7 +7924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7930,7 +7950,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7956,7 +7976,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7982,7 +8002,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8008,7 +8028,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8034,7 +8054,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8060,7 +8080,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8086,7 +8106,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8106,7 +8126,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8126,7 +8146,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8146,7 +8166,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8167,7 +8187,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8188,7 +8208,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8209,7 +8229,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8230,7 +8250,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8251,7 +8271,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8272,7 +8292,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8293,7 +8313,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8314,7 +8334,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8335,7 +8355,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8356,7 +8376,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8377,7 +8397,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8398,7 +8418,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8419,7 +8439,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8440,7 +8460,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8461,7 +8481,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8482,7 +8502,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8503,7 +8523,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8524,7 +8544,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8545,7 +8565,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8566,7 +8586,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8575,7 +8595,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8584,7 +8604,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8593,7 +8613,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8602,7 +8622,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8611,7 +8631,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8620,7 +8640,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8629,7 +8649,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8638,7 +8658,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8647,7 +8667,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8656,7 +8676,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8665,7 +8685,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8674,7 +8694,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8683,7 +8703,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8692,7 +8712,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8701,7 +8721,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8710,7 +8730,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8719,7 +8739,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8728,7 +8748,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8737,7 +8757,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8746,7 +8766,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8755,7 +8775,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8764,7 +8784,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8773,7 +8793,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8782,7 +8802,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8791,7 +8811,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8800,7 +8820,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8809,7 +8829,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8818,7 +8838,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8827,7 +8847,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/OLEGARIO, LEONARD ERIC.xlsx
+++ b/REGULAR/OJT/OLEGARIO, LEONARD ERIC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1187,7 +1187,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1230,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1294,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1420,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1483,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1581,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1640,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1705,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1748,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1823,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2075,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2133,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2199,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2255,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2330,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2373,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2439,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2495,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2593,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2656,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,9 +3103,9 @@
   <dimension ref="A2:K228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A139" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A145" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
+      <selection pane="bottomLeft" activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,7 +3268,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>78.281999999999996</v>
+        <v>80.781999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3278,7 +3278,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>113.25</v>
+        <v>115.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6384,15 +6384,17 @@
       <c r="B154" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C154" s="13"/>
+      <c r="C154" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D154" s="39">
         <v>2</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
-      <c r="G154" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G154" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H154" s="39"/>
       <c r="I154" s="9"/>
@@ -6408,13 +6410,15 @@
       <c r="B155" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C155" s="13"/>
+      <c r="C155" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D155" s="39"/>
       <c r="E155" s="9"/>
       <c r="F155" s="20"/>
-      <c r="G155" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G155" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H155" s="39"/>
       <c r="I155" s="9"/>
@@ -6425,7 +6429,9 @@
       <c r="A156" s="40">
         <v>45108</v>
       </c>
-      <c r="B156" s="20"/>
+      <c r="B156" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C156" s="13"/>
       <c r="D156" s="39"/>
       <c r="E156" s="9"/>
@@ -6437,7 +6443,9 @@
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="20"/>
+      <c r="K156" s="49">
+        <v>45127</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">

--- a/REGULAR/OJT/OLEGARIO, LEONARD ERIC.xlsx
+++ b/REGULAR/OJT/OLEGARIO, LEONARD ERIC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1190,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1233,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1357,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1423,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1486,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1584,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1643,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1708,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1751,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1826,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2012,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2078,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2136,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2202,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2258,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2333,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2376,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2442,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2498,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2596,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2659,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3108,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A145" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K156" sqref="K156"/>
+      <selection pane="bottomLeft" activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,7 +3271,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.781999999999996</v>
+        <v>81.031999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3278,7 +3281,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>115.75</v>
+        <v>117</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6432,13 +6435,15 @@
       <c r="B156" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C156" s="13"/>
+      <c r="C156" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D156" s="39"/>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G156" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
@@ -6451,9 +6456,13 @@
       <c r="A157" s="40">
         <v>45139</v>
       </c>
-      <c r="B157" s="20"/>
+      <c r="B157" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C157" s="13"/>
-      <c r="D157" s="39"/>
+      <c r="D157" s="39">
+        <v>1</v>
+      </c>
       <c r="E157" s="9"/>
       <c r="F157" s="20"/>
       <c r="G157" s="13" t="str">
@@ -6463,7 +6472,9 @@
       <c r="H157" s="39"/>
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="20"/>
+      <c r="K157" s="49">
+        <v>45147</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
